--- a/1_notes/Параметры sayani.xlsx
+++ b/1_notes/Параметры sayani.xlsx
@@ -63,9 +63,6 @@
     <t>М</t>
   </si>
   <si>
-    <t>кг</t>
-  </si>
-  <si>
     <t>Расход воды</t>
   </si>
   <si>
@@ -73,9 +70,6 @@
   </si>
   <si>
     <t>Температура (ср.по каналу)</t>
-  </si>
-  <si>
-    <t>МДж</t>
   </si>
   <si>
     <t>°C</t>
@@ -121,6 +115,12 @@
   </si>
   <si>
     <t>Аналогично за исключением тип</t>
+  </si>
+  <si>
+    <t>ГДж</t>
+  </si>
+  <si>
+    <t>Т</t>
   </si>
 </sst>
 </file>
@@ -693,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,7 +709,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D1" s="5"/>
       <c r="F1" s="10"/>
@@ -728,20 +728,20 @@
       </c>
       <c r="F2" s="11">
         <f ca="1">TODAY()</f>
-        <v>42685</v>
+        <v>42696</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -777,7 +777,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D8" s="8">
         <v>0</v>
@@ -786,18 +786,18 @@
         <v>11</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D9" s="8">
         <v>1</v>
@@ -806,27 +806,27 @@
         <v>13</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8">
         <v>2</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -869,7 +869,7 @@
     </row>
     <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>

--- a/1_notes/Параметры sayani.xlsx
+++ b/1_notes/Параметры sayani.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>Наименование</t>
   </si>
@@ -79,6 +79,30 @@
   </si>
   <si>
     <t>sayani_kombik</t>
+  </si>
+  <si>
+    <t>Суточный</t>
+  </si>
+  <si>
+    <t>Чтение значений энергии СУТОЧНЫХ (чтение раз в n суток):</t>
+  </si>
+  <si>
+    <t>Аналогично за исключением тип</t>
+  </si>
+  <si>
+    <t>ГДж</t>
+  </si>
+  <si>
+    <t>Т</t>
+  </si>
+  <si>
+    <t>Объем</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>m3</t>
   </si>
   <si>
     <r>
@@ -92,7 +116,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>САЯНЫ Комбик</t>
+      <t>САЯНЫ</t>
     </r>
     <r>
       <rPr>
@@ -108,19 +132,13 @@
     </r>
   </si>
   <si>
-    <t>Суточный</t>
-  </si>
-  <si>
-    <t>Чтение значений энергии СУТОЧНЫХ (чтение раз в n суток):</t>
-  </si>
-  <si>
-    <t>Аналогично за исключением тип</t>
-  </si>
-  <si>
-    <t>ГДж</t>
-  </si>
-  <si>
-    <t>Т</t>
+    <t>*** ДЛЯ КОМБИКА ***</t>
+  </si>
+  <si>
+    <t>c 1 по 2</t>
+  </si>
+  <si>
+    <t>*** ДЛЯ СЧЕТЧИКА ИМПУЛЬСОВ 2 КАНАЛА ***</t>
   </si>
 </sst>
 </file>
@@ -693,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -702,14 +720,14 @@
     <col min="1" max="1" width="31.7109375" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
     <col min="5" max="5" width="49.140625" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D1" s="5"/>
       <c r="F1" s="10"/>
@@ -719,7 +737,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="11">
-        <v>42684</v>
+        <v>42885</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -728,7 +746,7 @@
       </c>
       <c r="F2" s="11">
         <f ca="1">TODAY()</f>
-        <v>42696</v>
+        <v>42885</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -741,7 +759,7 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -770,143 +788,137 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="8">
-        <v>0</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>22</v>
+      <c r="C8" s="13" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D9" s="8">
-        <v>1</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="8">
+        <v>2</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C12" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="8">
+      <c r="B13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="8">
+        <v>4</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="13"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="13"/>
+      <c r="A18" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
